--- a/Əməkhaqqı kalkulyatoru.xlsx
+++ b/Əməkhaqqı kalkulyatoru.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Мои файлы $$$\Эра 2\Образование\Excel\Github\Əməkhaqqı kalkulyatoru\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC54B48-EFE4-4AEC-9676-C8E349A8F461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21546A6-4F49-43FA-8398-49675F9664B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="13372" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="13372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
-    <sheet name="Əməkhaqqı kalkulyatoru" sheetId="1" r:id="rId2"/>
+    <sheet name="Əməkhaqqı kalkulyatoru" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,11 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
-  <si>
-    <t>Pensiya fonduna ödəniş</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>İcbari tibbi sığorta</t>
   </si>
@@ -51,19 +70,36 @@
     <t>Vergilər</t>
   </si>
   <si>
-    <t>Əməkhaqqı (GROSS)</t>
-  </si>
-  <si>
     <t>Əməkhaqqı (NET)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Gəlir vergisi (2500 ₼-dək </t>
-    </r>
+    <t>Ödəyiləcək vergi</t>
+  </si>
+  <si>
+    <t>Faylın istifadəsi zamanı müəllifin «Github» səhifəsinə istinad mütləqdir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Müəllifin «Github» səhifəsi: https://github.com/FuadNamaz </t>
+  </si>
+  <si>
+    <t>Bu faylın/layihənin üçüncü tərəflər tərəfindən üçüncü tərəflərin portfoliolarında/CV-lərində istifadə edilməsi qadağandır.</t>
+  </si>
+  <si>
+    <t>Gəlir vergisi</t>
+  </si>
+  <si>
+    <t>DSMF</t>
+  </si>
+  <si>
+    <t>6 + ə/h-ın 10%-i</t>
+  </si>
+  <si>
+    <t>6 + ə/h-ın 3%-i</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -71,7 +107,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>hissəsindən</t>
+      <t>Əməkhaqqı (GROSS)</t>
     </r>
     <r>
       <rPr>
@@ -81,86 +117,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gəlir vergisi (2500 ₼-dan çox olan </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hissəsindən</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>2500 ₼-dək əməkhaqqına düşən vergi faizi</t>
-  </si>
-  <si>
-    <t>2500 ₼-dan çox əməkhaqqına düşən vergi faizi</t>
-  </si>
-  <si>
-    <t>Ödəyiləcək vergi</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>25% gəlir vergisi altına düşməyəcək maksimum GROSS əməkhaqqı</t>
-  </si>
-  <si>
-    <t>Verginin GROSS əməkhaqqına nisbəti</t>
-  </si>
-  <si>
-    <t>Verginin NET əməkhaqqına nisbəti</t>
-  </si>
-  <si>
-    <t>25% gəlir vergisi altına düşməyəcək maksimum NET əməkhaqqı</t>
-  </si>
-  <si>
-    <t>Faylın istifadəsi zamanı müəllifin «Github» səhifəsinə istinad mütləqdir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Müəllifin «Github» səhifəsi: https://github.com/FuadNamaz </t>
-  </si>
-  <si>
-    <r>
-      <t>Əməkhaqqı (NET)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (ə/h-nı bura daxil edin)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Əməkhaqqı (GROSS) </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -175,7 +132,84 @@
     </r>
   </si>
   <si>
-    <t>Bu faylın/layihənin üçüncü tərəflər tərəfindən üçüncü tərəflərin portfoliolarında/CV-lərində istifadə edilməsi qadağandır.</t>
+    <t>2500 ₼-dək ə/h-dan</t>
+  </si>
+  <si>
+    <t>2500-8000 ₼ ə/h</t>
+  </si>
+  <si>
+    <t>8000 ₼-dan çox ə/h</t>
+  </si>
+  <si>
+    <t>₼75 + 2500 ₼-dan artıq hissəsinə 10%</t>
+  </si>
+  <si>
+    <t>₼125 + 2500 ₼-dan artıq hissəsinə 10%</t>
+  </si>
+  <si>
+    <t>₼175 + 2500 ₼-dan artıq hissəsinə 10%</t>
+  </si>
+  <si>
+    <t>₼625 + 8000 ₼-dan artıq hissəsinə 14%</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">₼675 + 8000 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>₼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-dan artıq hissəsinə 14%</t>
+    </r>
+  </si>
+  <si>
+    <t>₼725 + 8000 ₼-dan artıq hissəsinə 14%</t>
+  </si>
+  <si>
+    <t>Minimum gəlir vergisi tətbiq olunacaq ə/h məbləği</t>
+  </si>
+  <si>
+    <t>Maksimum gəlir vergisi tətbiq olunacaq ə/h məbləği</t>
+  </si>
+  <si>
+    <t>Gəlir vergisinə əlavə olan ödənişlər</t>
+  </si>
+  <si>
+    <t>2028 və sonra</t>
+  </si>
+  <si>
+    <t>(Mənbə - Link)</t>
+  </si>
+  <si>
+    <t>8000 ₼-dan artıq hissəsinə 14%</t>
+  </si>
+  <si>
+    <t>Bura klikləyərək siyahıdan ili seçin</t>
+  </si>
+  <si>
+    <t>Minimum əməkhaqqı</t>
+  </si>
+  <si>
+    <t>DSMF ayırmalarına əlavə olan ödənişlər</t>
+  </si>
+  <si>
+    <t>Verginin GROSS əməkhaqqındakı payı (faizlə)</t>
   </si>
 </sst>
 </file>
@@ -193,6 +227,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,31 +281,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -280,10 +297,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -295,7 +329,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -318,52 +352,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -392,121 +563,107 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2242458</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>59872</xdr:rowOff>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2454730</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>165463</xdr:rowOff>
+      <xdr:colOff>2699657</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>103415</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Arrow: Right 3">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C31175-C4EC-0F2F-7600-A2A1856CC470}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310ED0E5-A10C-4189-A4E6-F474D6F3FF7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12959444" y="435429"/>
-          <a:ext cx="212272" cy="105591"/>
+          <a:off x="9829800" y="674914"/>
+          <a:ext cx="299357" cy="1"/>
         </a:xfrm>
-        <a:prstGeom prst="rightArrow">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ru-RU" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2438400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2400299</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>92528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2650672</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2699656</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Arrow: Right 4">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CA7E89-BF0F-47CA-8A59-0DEE5D60EF72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2FD6675-29B0-40BC-BC50-9145EA9F380D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8915400" y="429986"/>
-          <a:ext cx="212272" cy="105591"/>
+          <a:off x="9829799" y="283028"/>
+          <a:ext cx="299357" cy="1"/>
         </a:xfrm>
-        <a:prstGeom prst="rightArrow">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ru-RU" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -777,7 +934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA03E10-49FF-4367-92B8-457B613BED46}">
   <dimension ref="F12:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -787,18 +944,18 @@
   </cols>
   <sheetData>
     <row r="12" spans="6:6" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="F12" s="14" t="s">
-        <v>20</v>
+      <c r="F12" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="6:6" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="F13" s="14" t="s">
-        <v>16</v>
+      <c r="F13" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="6:6" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="F14" s="14" t="s">
-        <v>17</v>
+      <c r="F14" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -808,190 +965,418 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D42A9-F4C2-48FF-93FB-779445D8FDF3}">
+  <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="55.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.53515625" customWidth="1"/>
-    <col min="4" max="4" width="5.69140625" customWidth="1"/>
-    <col min="5" max="5" width="37.69140625" customWidth="1"/>
-    <col min="6" max="6" width="11.765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.69140625" customWidth="1"/>
-    <col min="8" max="8" width="35" customWidth="1"/>
-    <col min="9" max="9" width="12.765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.765625" customWidth="1"/>
+    <col min="4" max="5" width="16.61328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.61328125" customWidth="1"/>
+    <col min="7" max="7" width="6.3828125" customWidth="1"/>
+    <col min="8" max="8" width="38.23046875" customWidth="1"/>
+    <col min="9" max="9" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.61328125" customWidth="1"/>
+    <col min="11" max="11" width="36" customWidth="1"/>
+    <col min="12" max="12" width="11.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="19">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="6">
+        <v>2025</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2026</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2027</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F5" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="H6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="I6" s="18">
+        <f>I4-I7</f>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
+      <c r="E7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" cm="1">
+        <f t="array" ref="I7">_xlfn.IFS($I$2=C4,IF(I4&lt;=C27,I4*(C5+C6+C15)+C16,I4*(C5+C6+C15)+C16+(I4-C27)*C20),$I$2=D4,IF(I4&lt;=C26,I4*(D5+D6+D9+D15)+D16+I4*D18,IF(OR(I4&gt;C26,I4&lt;=C27),I4*(D5+D6+D15)+D16+D22+(I4-C26)*D19,IF(I4&gt;C27,I4*(D5+D6+D15)+D16+D23+(I4-C27)*D20))),$I$2=E4,IF(I4&lt;=C26,I4*(E5+E6+E9+E15)+E16+I4*E18,IF(OR(I4&gt;C26,I4&lt;=C27),I4*(E5+E6+E15)+E16+E22+(I4-C26)*E19,IF(I4&gt;C27,I4*(E5+E6+E15)+E16+E23+(I4-C27)*E20))),$I$2=F4,_xlfn.IFS(I4&lt;=C26,I4*(F5+F6+F9+F15)+F16+I4*F18,OR(I4&gt;C26,I4&lt;=C27),I4*(F5+F6+F15)+F16+F22+(I4-C26)*F19,I4&gt;C27,I4*(F5+F6+F15)+F16+F23+(I4-C27)*F20))</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="17">
+        <f>I7/I4</f>
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="15">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D9" s="15">
         <v>0.03</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="12">
-        <f>IF(F3&lt;=C11,F3*(100%-SUM(C3:C6)),C11*(100%-SUM(C3:C6))+((F3-C11)*(100%-(SUM(C3:C5)+C7))))</f>
-        <v>804.99999999999989</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="13">
-        <f>IF(I3&lt;=C12,I3/(100%-SUM(C3:C6)),C12*100%/(100%-SUM(C3:C6))+(I3-C12)*100%/(100%-(SUM(C3:C5)+C7)))</f>
-        <v>1242.2360248447205</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5">
-        <f>F3-F5</f>
-        <v>195.00000000000011</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="6">
-        <f>I5-I3</f>
-        <v>242.23602484472053</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="8">
-        <f>IFERROR(F6/F3,"%")</f>
-        <v>0.19500000000000012</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="7">
-        <f>I6/I5</f>
-        <v>0.19500000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3">
-        <f>SUM(C3:C6)</f>
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="E9" s="15" t="str">
-        <f>IF(F3&lt;400,"Minimum GROSS əməkhaqqı 400 ₼-dır","")</f>
-        <v/>
-      </c>
-      <c r="H9" s="15" t="str">
-        <f>IF(I3&lt;320,"Minimum NET əməkhaqqı 320 ₼-dır","")</f>
-        <v/>
+      <c r="E9" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="15">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="45" t="str">
+        <f>IF(I4&lt;C28,B28&amp;" ₼"&amp;C28&amp;"-dır. Vergi həcmini hesablamaq üçün daha yüksək rəqəm daxil edin.","")</f>
+        <v/>
+      </c>
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11" spans="2:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C12" s="21"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C13" s="21"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="6">
+        <v>2025</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2026</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2027</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="str">
-        <f>"2500 ₼-na "&amp;C9*100&amp;"%, qalan hissəsinə "&amp;(SUM(C3:C5)+C7)*100&amp;"%"</f>
-        <v>2500 ₼-na 19,5%, qalan hissəsinə 30,5%</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="C15" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="F15" s="22">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="24">
+        <v>6</v>
+      </c>
+      <c r="D16" s="24">
+        <v>6</v>
+      </c>
+      <c r="E16" s="24">
+        <v>6</v>
+      </c>
+      <c r="F16" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="36">
+        <v>0</v>
+      </c>
+      <c r="D18" s="36">
+        <v>0.03</v>
+      </c>
+      <c r="E18" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="F18" s="28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="37">
+        <v>0</v>
+      </c>
+      <c r="D19" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="38">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D20" s="43">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E20" s="43">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B21" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="39">
+        <v>2025</v>
+      </c>
+      <c r="D21" s="39">
+        <v>2026</v>
+      </c>
+      <c r="E21" s="39">
+        <v>2027</v>
+      </c>
+      <c r="F21" s="29">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="40">
+        <v>0</v>
+      </c>
+      <c r="D22" s="40">
+        <v>75</v>
+      </c>
+      <c r="E22" s="40">
+        <v>125</v>
+      </c>
+      <c r="F22" s="30">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="41">
+        <v>0</v>
+      </c>
+      <c r="D23" s="41">
+        <v>625</v>
+      </c>
+      <c r="E23" s="41">
+        <v>675</v>
+      </c>
+      <c r="F23" s="31">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="14">
         <v>2500</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="6">
-        <f>C11*(100%-SUM(C3:C6))</f>
-        <v>2012.4999999999998</v>
+    <row r="27" spans="2:6" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="14">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="14">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
-      <formula>400</formula>
+  <mergeCells count="1">
+    <mergeCell ref="H10:I10"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>$C$28</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>320</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 L2 I26" xr:uid="{6D650F89-9934-4FC7-B300-9BE7CA9DA9B7}">
+      <formula1>$C$4:$F$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{8B1A1F4A-C648-4D40-954A-F18EDF86EC44}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{B476FA38-F6A3-43E7-97E8-6BBD3116F734}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
-  <ignoredErrors>
-    <ignoredError sqref="C9 C12" formulaRange="1"/>
-  </ignoredErrors>
-  <drawing r:id="rId3"/>
-  <picture r:id="rId4"/>
+  <drawing r:id="rId2"/>
+  <picture r:id="rId3"/>
 </worksheet>
 </file>